--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H2">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I2">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J2">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>121.266211765876</v>
+        <v>319.2901320499684</v>
       </c>
       <c r="R2">
-        <v>1091.395905892884</v>
+        <v>2873.611188449715</v>
       </c>
       <c r="S2">
-        <v>0.006361606897983426</v>
+        <v>0.01262874073604566</v>
       </c>
       <c r="T2">
-        <v>0.006361606897983425</v>
+        <v>0.01262874073604565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H3">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I3">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J3">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
-        <v>433.6007492372884</v>
+        <v>852.249358633621</v>
       </c>
       <c r="R3">
-        <v>3902.406743135596</v>
+        <v>7670.244227702588</v>
       </c>
       <c r="S3">
-        <v>0.02274662890141441</v>
+        <v>0.03370864023746536</v>
       </c>
       <c r="T3">
-        <v>0.02274662890141441</v>
+        <v>0.03370864023746536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H4">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I4">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J4">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>221.0228331027631</v>
+        <v>485.4362268741114</v>
       </c>
       <c r="R4">
-        <v>1989.205497924868</v>
+        <v>4368.926041867002</v>
       </c>
       <c r="S4">
-        <v>0.01159482397613775</v>
+        <v>0.01920024340782942</v>
       </c>
       <c r="T4">
-        <v>0.01159482397613775</v>
+        <v>0.01920024340782942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.24958966666667</v>
+        <v>22.11125233333334</v>
       </c>
       <c r="H5">
-        <v>33.748769</v>
+        <v>66.33375700000001</v>
       </c>
       <c r="I5">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="J5">
-        <v>0.04815412300202451</v>
+        <v>0.08763778737242772</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>142.0336442653755</v>
+        <v>558.7543609640682</v>
       </c>
       <c r="R5">
-        <v>1278.30279838838</v>
+        <v>5028.789248676613</v>
       </c>
       <c r="S5">
-        <v>0.007451063226488922</v>
+        <v>0.02210016299108729</v>
       </c>
       <c r="T5">
-        <v>0.007451063226488921</v>
+        <v>0.02210016299108729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>624.813553</v>
       </c>
       <c r="I6">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J6">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N6">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q6">
-        <v>2245.082557893812</v>
+        <v>3007.470266518748</v>
       </c>
       <c r="R6">
-        <v>20205.74302104431</v>
+        <v>27067.23239866873</v>
       </c>
       <c r="S6">
-        <v>0.1177766871650439</v>
+        <v>0.1189531352672293</v>
       </c>
       <c r="T6">
-        <v>0.1177766871650439</v>
+        <v>0.1189531352672293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>624.813553</v>
       </c>
       <c r="I7">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J7">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>115.631084</v>
       </c>
       <c r="O7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q7">
         <v>8027.54093680905</v>
@@ -883,10 +883,10 @@
         <v>72247.86843128144</v>
       </c>
       <c r="S7">
-        <v>0.4211235681711895</v>
+        <v>0.3175097601296651</v>
       </c>
       <c r="T7">
-        <v>0.4211235681711894</v>
+        <v>0.317509760129665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>624.813553</v>
       </c>
       <c r="I8">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J8">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N8">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q8">
-        <v>4091.94366896948</v>
+        <v>4572.440147904294</v>
       </c>
       <c r="R8">
-        <v>36827.49302072532</v>
+        <v>41151.96133113866</v>
       </c>
       <c r="S8">
-        <v>0.2146627382154359</v>
+        <v>0.1808516936875854</v>
       </c>
       <c r="T8">
-        <v>0.2146627382154358</v>
+        <v>0.1808516936875854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>624.813553</v>
       </c>
       <c r="I9">
-        <v>0.8915095150431698</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="J9">
-        <v>0.8915095150431697</v>
+        <v>0.8254813202458152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N9">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q9">
-        <v>2629.563938139117</v>
+        <v>5263.041222408129</v>
       </c>
       <c r="R9">
-        <v>23666.07544325206</v>
+        <v>47367.37100167317</v>
       </c>
       <c r="S9">
-        <v>0.1379465214915006</v>
+        <v>0.2081667311613355</v>
       </c>
       <c r="T9">
-        <v>0.1379465214915005</v>
+        <v>0.2081667311613355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H10">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I10">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J10">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N10">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O10">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P10">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q10">
-        <v>116.772489759008</v>
+        <v>179.5486987397584</v>
       </c>
       <c r="R10">
-        <v>1050.952407831072</v>
+        <v>1615.938288657825</v>
       </c>
       <c r="S10">
-        <v>0.00612586692969198</v>
+        <v>0.007101609909835608</v>
       </c>
       <c r="T10">
-        <v>0.006125866929691979</v>
+        <v>0.007101609909835607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H11">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I11">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J11">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>115.631084</v>
       </c>
       <c r="O11">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P11">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q11">
-        <v>417.5329493063076</v>
+        <v>479.2514643719489</v>
       </c>
       <c r="R11">
-        <v>3757.796543756768</v>
+        <v>4313.26317934754</v>
       </c>
       <c r="S11">
-        <v>0.02190371457773049</v>
+        <v>0.01895562024440011</v>
       </c>
       <c r="T11">
-        <v>0.02190371457773048</v>
+        <v>0.01895562024440011</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H12">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I12">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J12">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N12">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O12">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P12">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q12">
-        <v>212.8324628861049</v>
+        <v>272.9788180323234</v>
       </c>
       <c r="R12">
-        <v>1915.492165974944</v>
+        <v>2456.80936229091</v>
       </c>
       <c r="S12">
-        <v>0.01116515840888209</v>
+        <v>0.01079700990828895</v>
       </c>
       <c r="T12">
-        <v>0.01116515840888209</v>
+        <v>0.01079700990828895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.83271733333333</v>
+        <v>12.43397833333333</v>
       </c>
       <c r="H13">
-        <v>32.498152</v>
+        <v>37.301935</v>
       </c>
       <c r="I13">
-        <v>0.04636969155071965</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="J13">
-        <v>0.04636969155071963</v>
+        <v>0.04928198244688778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N13">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O13">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P13">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q13">
-        <v>136.7703503630044</v>
+        <v>314.2083276490461</v>
       </c>
       <c r="R13">
-        <v>1230.93315326704</v>
+        <v>2827.874948841415</v>
       </c>
       <c r="S13">
-        <v>0.007174951634415094</v>
+        <v>0.01242774238436312</v>
       </c>
       <c r="T13">
-        <v>0.007174951634415092</v>
+        <v>0.01242774238436312</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H14">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I14">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J14">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N14">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O14">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P14">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q14">
-        <v>35.172174370508</v>
+        <v>136.9838431340434</v>
       </c>
       <c r="R14">
-        <v>316.549569334572</v>
+        <v>1232.85458820639</v>
       </c>
       <c r="S14">
-        <v>0.001845126881051484</v>
+        <v>0.005418061087137668</v>
       </c>
       <c r="T14">
-        <v>0.001845126881051483</v>
+        <v>0.005418061087137667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H15">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I15">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J15">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>115.631084</v>
       </c>
       <c r="O15">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P15">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q15">
-        <v>125.7619986414742</v>
+        <v>365.6373333701609</v>
       </c>
       <c r="R15">
-        <v>1131.857987773268</v>
+        <v>3290.736000331448</v>
       </c>
       <c r="S15">
-        <v>0.006597455188972235</v>
+        <v>0.01446189099833571</v>
       </c>
       <c r="T15">
-        <v>0.006597455188972233</v>
+        <v>0.01446189099833571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H16">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I16">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J16">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N16">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O16">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P16">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q16">
-        <v>64.10568543827156</v>
+        <v>208.2648766085213</v>
       </c>
       <c r="R16">
-        <v>576.951168944444</v>
+        <v>1874.383889476692</v>
       </c>
       <c r="S16">
-        <v>0.003362974440658021</v>
+        <v>0.008237408134811839</v>
       </c>
       <c r="T16">
-        <v>0.00336297444065802</v>
+        <v>0.008237408134811837</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.262842333333333</v>
+        <v>9.486307333333334</v>
       </c>
       <c r="H17">
-        <v>9.788526999999998</v>
+        <v>28.458922</v>
       </c>
       <c r="I17">
-        <v>0.01396667040408609</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="J17">
-        <v>0.01396667040408608</v>
+        <v>0.03759890993486929</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N17">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O17">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P17">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q17">
-        <v>41.19558143883777</v>
+        <v>239.7202796132331</v>
       </c>
       <c r="R17">
-        <v>370.7602329495399</v>
+        <v>2157.482516519098</v>
       </c>
       <c r="S17">
-        <v>0.002161113893404347</v>
+        <v>0.009481549714584083</v>
       </c>
       <c r="T17">
-        <v>0.002161113893404346</v>
+        <v>0.009481549714584083</v>
       </c>
     </row>
   </sheetData>
